--- a/Projects/scraping_py/MaritimeToyota.xlsx
+++ b/Projects/scraping_py/MaritimeToyota.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagawithme/Documents/Github/X4DS/Projects/scraping_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D627102D-9A58-5F47-A675-D313CC9EAFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A7A10-C7D7-9142-AE01-53F4E606FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="42660" windowHeight="35500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_part_1" sheetId="17" r:id="rId1"/>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N79" sqref="N79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4193,9 +4193,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5639,7 +5645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6558,9 +6566,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
